--- a/third-party/language/excel/language.xlsx
+++ b/third-party/language/excel/language.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>*root</t>
   </si>
@@ -159,6 +159,51 @@
   </si>
   <si>
     <t>英語</t>
+  </si>
+  <si>
+    <t>browse-title</t>
+  </si>
+  <si>
+    <t>likes-title</t>
+  </si>
+  <si>
+    <t>playlist-title</t>
+  </si>
+  <si>
+    <t>stations-title</t>
+  </si>
+  <si>
+    <t>browse-menu</t>
+  </si>
+  <si>
+    <t>likes-menu</t>
+  </si>
+  <si>
+    <t>playlist-menu</t>
+  </si>
+  <si>
+    <t>stations-menu</t>
+  </si>
+  <si>
+    <t>타임라인</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>timeline-menu</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>Playlists</t>
+  </si>
+  <si>
+    <t>playlists-menu</t>
+  </si>
+  <si>
+    <t>Stations</t>
   </si>
 </sst>
 </file>
@@ -524,9 +569,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -541,33 +584,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -582,9 +617,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -599,9 +632,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -616,17 +647,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -635,9 +662,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1046,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="261" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="204" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1135,6 +1160,62 @@
         <v>46</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
